--- a/util/4.진척도/개발진척도_botbinoo.xlsx
+++ b/util/4.진척도/개발진척도_botbinoo.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Group Project\github\Eclipse\Binoo\binooMadQuize\util\4.진척도\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>진척 평균</t>
   </si>
@@ -150,106 +155,98 @@
     <t>후원정보</t>
   </si>
   <si>
+    <t>X(추후 제작)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근진행날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균진척도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목은 뭐가 좋을까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>X(추후 제작)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근진행날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균진척도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목은 뭐가 좋을까</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2018.02.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보처리방침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 기능 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.02.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view만 남음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일기능 추가.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.02.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보처리방침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 기능 완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view 구축중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.02.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view만 남음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발제외</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일기능 추가.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMTP mail 전송</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -322,14 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">메뉴, 사용자 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인 가이드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -438,14 +427,38 @@
   </si>
   <si>
     <t>뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view 만 남음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메뉴, 사용자, 게시판 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view 구축중 디자인이 맘에 안듬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,47 +875,47 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1177,21 +1190,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -1202,30 +1215,30 @@
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="31.5">
-      <c r="B1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="2:12" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:12" ht="14.25" thickBot="1">
+    <row r="1" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>1</v>
@@ -1243,23 +1256,23 @@
         <v>5</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="14.25" thickTop="1">
-      <c r="B4" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1269,28 +1282,28 @@
         <v>0.99</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1298,28 +1311,28 @@
         <v>0.99</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1327,28 +1340,28 @@
         <v>0.85</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1356,28 +1369,28 @@
         <v>0.85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1385,23 +1398,23 @@
         <v>0.7</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1409,23 +1422,23 @@
         <v>0.7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1436,25 +1449,25 @@
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1462,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
       <c r="K11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1484,114 +1497,118 @@
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="10"/>
       <c r="K12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
+      <c r="I14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9">
         <v>0.99</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>9</v>
@@ -1603,20 +1620,20 @@
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="25" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1626,18 +1643,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="23"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1645,18 +1662,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1664,18 +1681,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1683,41 +1700,45 @@
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>41</v>
+      <c r="C22" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="23"/>
-      <c r="C23" s="25"/>
+      <c r="I22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="8" t="s">
         <v>34</v>
       </c>
@@ -1725,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>42</v>
+      <c r="C24" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>28</v>
@@ -1748,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
@@ -1767,18 +1788,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
+    <row r="26" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1786,276 +1807,276 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B27" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+    <row r="27" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="15">
         <f>AVERAGE(E4:E26)</f>
-        <v>0.32869565217391306</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="29" spans="2:12">
+        <v>0.3852173913043479</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E30" s="22">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="D31" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E31" s="22">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="D32" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="22">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12">
-      <c r="D33" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="22">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12">
-      <c r="D34" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E34" s="22">
         <v>0.6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="22">
         <v>0.3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12">
-      <c r="D36" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E36" s="22">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="22">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12">
-      <c r="D38" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="22">
         <v>0.1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" s="22">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="1" t="s">
         <v>0</v>
       </c>
